--- a/municipal/სასტუმროები/სტუმრები/კახეთი/გურჯაანი.xlsx
+++ b/municipal/სასტუმროები/სტუმრები/კახეთი/გურჯაანი.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\4 სტუმრები\კახეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\სასტუმროები\სტუმრები\კახეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="16">
   <si>
     <t>(კაცი)</t>
   </si>
@@ -68,7 +68,52 @@
     <t xml:space="preserve">                       სხვა ქვეყნებიდან</t>
   </si>
   <si>
-    <t>სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში სტუმართა რაოდენობა ჩამოსვლის ადგილისა და მიზნის მიხედვით გურჯაანის მუნიციპალიტეტი</t>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>საქართველოს კანონმდებლობის შესაბამისად დარეგისტრირებული იურიდიული პირები და ინდივიდუალური მეწარმეები(ადგილობრივი ერთეულებისა და ფილიალების ჩათვლით).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> სტუმართა რაოდენობა ჩამოსვლის ადგილისა და მიზნის მიხედვით გურჯაანის მუნიციპალიტეტში</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -78,7 +123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +204,20 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -251,7 +310,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -354,14 +413,17 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -645,7 +707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI87"/>
+  <dimension ref="A1:BI88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -663,7 +725,7 @@
   <sheetData>
     <row r="1" spans="1:61" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -730,26 +792,26 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
       <c r="V2" s="41"/>
       <c r="W2" s="41"/>
       <c r="X2" s="41"/>
@@ -867,14 +929,14 @@
       <c r="BI3" s="8"/>
     </row>
     <row r="4" spans="1:61" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42">
+      <c r="A4" s="44">
         <v>2010</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -3071,8 +3133,34 @@
         <v>8</v>
       </c>
     </row>
+    <row r="88" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="45"/>
+      <c r="C88" s="45"/>
+      <c r="D88" s="45"/>
+      <c r="E88" s="45"/>
+      <c r="F88" s="45"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="AZ2:BD2"/>
+    <mergeCell ref="BE2:BI2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="AP2:AT2"/>
+    <mergeCell ref="AU2:AY2"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="V2:Z2"/>
     <mergeCell ref="AA2:AE2"/>
@@ -3082,21 +3170,6 @@
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="L2:P2"/>
-    <mergeCell ref="AZ2:BD2"/>
-    <mergeCell ref="BE2:BI2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="AP2:AT2"/>
-    <mergeCell ref="AU2:AY2"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A67:F67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
